--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value174.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value174.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.398518545370889</v>
+        <v>1.285876989364624</v>
       </c>
       <c r="B1">
-        <v>1.590471412170416</v>
+        <v>3.843074798583984</v>
       </c>
       <c r="C1">
-        <v>1.96265548536359</v>
+        <v>5.939803123474121</v>
       </c>
       <c r="D1">
-        <v>3.23038976629133</v>
+        <v>2.539125919342041</v>
       </c>
       <c r="E1">
-        <v>0.4653418589811894</v>
+        <v>1.86514937877655</v>
       </c>
     </row>
   </sheetData>
